--- a/biology/Zoologie/Genicanthus_bellus/Genicanthus_bellus.xlsx
+++ b/biology/Zoologie/Genicanthus_bellus/Genicanthus_bellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-ange lyre splendide[1] (Genicanthus bellus) est une espèce de poissons de la famille des Pomacanthidés. Elle est présente dans les récifs coralliens[2] de l'Ouest Pacifique. La taille maximale pour cette espèce est de 18 cm[2] à 23 cm[1] selon les sources.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-ange lyre splendide (Genicanthus bellus) est une espèce de poissons de la famille des Pomacanthidés. Elle est présente dans les récifs coralliens de l'Ouest Pacifique. La taille maximale pour cette espèce est de 18 cm à 23 cm selon les sources.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Dimorphisme sexuel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les espèces du genre Genicanthus, le Poisson-ange lyre splendide présente un dimorphisme sexuel important.
 </t>
